--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/200.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/200.xlsx
@@ -479,13 +479,13 @@
         <v>-10.9775679097914</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.70055094433995</v>
+        <v>-14.75958413785329</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06668181221200295</v>
+        <v>-0.01728455359017049</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.17771337259682</v>
+        <v>-11.25641120497844</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.13580832166693</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.85442477963876</v>
+        <v>-14.90764499069037</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002641931334936586</v>
+        <v>0.05875554131457451</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.88373880458871</v>
+        <v>-10.95717353122795</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.1884104460909</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.21626984557838</v>
+        <v>-15.27453059322406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03994190213101415</v>
+        <v>0.09156485223594005</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.51909198584095</v>
+        <v>-10.59899431008401</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.10817379547745</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.7263066873835</v>
+        <v>-15.79030186367386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1679846239230951</v>
+        <v>0.2271880173733804</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.3328539779174</v>
+        <v>-10.41619957780783</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.88548113201998</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.21137650766945</v>
+        <v>-16.27983615922884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1591996887162969</v>
+        <v>0.2155882370556111</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.17443711353251</v>
+        <v>-10.26127835828168</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.51487095760473</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.78276388059091</v>
+        <v>-16.86193303587482</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2950977922134135</v>
+        <v>0.3686110726697054</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.02675593747784</v>
+        <v>-10.11287710557072</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.00255825860077</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.36925977099171</v>
+        <v>-17.45756735365915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4445071522431914</v>
+        <v>0.5104268970512822</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.821311521285478</v>
+        <v>-9.907079197201625</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.356042872973108</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.096916870632</v>
+        <v>-18.19694206434279</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7226531261156617</v>
+        <v>0.7972006984964499</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.858140169179253</v>
+        <v>-9.945400367619357</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.590737126021715</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.58002284549169</v>
+        <v>-18.68685603668018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7641295415182499</v>
+        <v>0.8294470403956212</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.51178329750139</v>
+        <v>-9.595456204962861</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.728735289779972</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.18454683690555</v>
+        <v>-19.29970673270137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8896454488618777</v>
+        <v>0.9549105785278822</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.464703376482543</v>
+        <v>-9.55167554426013</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.798925060228604</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.73159561884423</v>
+        <v>-19.84959654435671</v>
       </c>
       <c r="F12" t="n">
-        <v>1.048428897726331</v>
+        <v>1.122230208845141</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.973270697015513</v>
+        <v>-9.061408079746013</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.831788218620985</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.5445883484069</v>
+        <v>-20.66833679486689</v>
       </c>
       <c r="F13" t="n">
-        <v>1.233410044577079</v>
+        <v>1.312631569072364</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.481942755971218</v>
+        <v>-8.581103857694451</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.870047391369475</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.37655182478722</v>
+        <v>-21.50105962481204</v>
       </c>
       <c r="F14" t="n">
-        <v>1.554577325587461</v>
+        <v>1.642819446740695</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.026317524776308</v>
+        <v>-8.138976790729361</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.950339987391038</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.20017550425737</v>
+        <v>-22.32779927235851</v>
       </c>
       <c r="F15" t="n">
-        <v>1.667694822139975</v>
+        <v>1.759550418877525</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.586298318568737</v>
+        <v>-7.710819210896394</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.105562195325879</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.05740712512223</v>
+        <v>-23.18156143297031</v>
       </c>
       <c r="F16" t="n">
-        <v>1.946168103583488</v>
+        <v>2.041689545116721</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.007330502301927</v>
+        <v>-7.122896259485843</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.362350475381305</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.67038874417184</v>
+        <v>-23.79159728388054</v>
       </c>
       <c r="F17" t="n">
-        <v>2.136739663747653</v>
+        <v>2.233753627804843</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.921026041969268</v>
+        <v>-7.040506397702861</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.739138269018407</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.48285778162083</v>
+        <v>-24.60757505849111</v>
       </c>
       <c r="F18" t="n">
-        <v>2.553179632537276</v>
+        <v>2.66061506965648</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.519956436715832</v>
+        <v>-6.639109484878381</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.24490150339821</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.33333377421936</v>
+        <v>-25.46378547973432</v>
       </c>
       <c r="F19" t="n">
-        <v>2.818403503504962</v>
+        <v>2.927410016965173</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.216673241387248</v>
+        <v>-6.33023587623638</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8867668384422313</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.08649467979533</v>
+        <v>-26.21710349294439</v>
       </c>
       <c r="F20" t="n">
-        <v>3.040239482855168</v>
+        <v>3.148984150258545</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.104419836822289</v>
+        <v>-6.231834128077967</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6632332891380068</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.67052921726189</v>
+        <v>-26.80167481482746</v>
       </c>
       <c r="F21" t="n">
-        <v>3.357754011372709</v>
+        <v>3.46228295726105</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.773878466977231</v>
+        <v>-5.892835130597153</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.5655722493252756</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.25694655384564</v>
+        <v>-27.38917881254708</v>
       </c>
       <c r="F22" t="n">
-        <v>3.563722119678744</v>
+        <v>3.659007899760826</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.628265874771554</v>
+        <v>-5.762985671012914</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.580645973711304</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.70399632667922</v>
+        <v>-27.83027158758767</v>
       </c>
       <c r="F23" t="n">
-        <v>3.746307375109455</v>
+        <v>3.840048263456214</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.429302148485842</v>
+        <v>-5.558889762013247</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.6922055700249535</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.933478210889</v>
+        <v>-28.06129836353277</v>
       </c>
       <c r="F24" t="n">
-        <v>3.882231663212255</v>
+        <v>3.977019935786352</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.266944500945598</v>
+        <v>-5.398404313779369</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.8822055134040759</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.20070520419147</v>
+        <v>-28.32441437374294</v>
       </c>
       <c r="F25" t="n">
-        <v>4.197494315641019</v>
+        <v>4.293199049414037</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.973415071234099</v>
+        <v>-5.100515147221575</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.134735058883169</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.16059038828442</v>
+        <v>-28.28340928124265</v>
       </c>
       <c r="F26" t="n">
-        <v>4.358267794537415</v>
+        <v>4.46298003266554</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.977329669783775</v>
+        <v>-5.109286990125532</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.433621630963419</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.05250033602313</v>
+        <v>-28.17114278437485</v>
       </c>
       <c r="F27" t="n">
-        <v>4.311109319701518</v>
+        <v>4.409380144831514</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.792623461292703</v>
+        <v>-4.910454186868238</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.761780371534964</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.00129633960914</v>
+        <v>-28.12381410960201</v>
       </c>
       <c r="F28" t="n">
-        <v>4.290632958057058</v>
+        <v>4.379555878958062</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.708243569477779</v>
+        <v>-4.816883498458422</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.103099645685196</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.78791798789469</v>
+        <v>-27.90280294533083</v>
       </c>
       <c r="F29" t="n">
-        <v>4.278876070105189</v>
+        <v>4.365337638071948</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.588658475321453</v>
+        <v>-4.692244775405189</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.442532951600664</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.64225302647764</v>
+        <v>-27.75379944668915</v>
       </c>
       <c r="F30" t="n">
-        <v>4.181757367625265</v>
+        <v>4.260468292309722</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.542259354050376</v>
+        <v>-4.645191038992026</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.765432921855825</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.19770388348683</v>
+        <v>-27.30477273612647</v>
       </c>
       <c r="F31" t="n">
-        <v>4.036668467533256</v>
+        <v>4.111006563068576</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.633643627885624</v>
+        <v>-4.725839624497059</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.062013132483676</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.82156202284405</v>
+        <v>-26.92374744652372</v>
       </c>
       <c r="F32" t="n">
-        <v>3.9508353301029</v>
+        <v>4.020957704123185</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.713781613579829</v>
+        <v>-4.804890949055401</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.324339290564282</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.40188825525252</v>
+        <v>-26.50399512511514</v>
       </c>
       <c r="F33" t="n">
-        <v>3.817634240991179</v>
+        <v>3.886342646304557</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.65113494448217</v>
+        <v>-4.71871741175116</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.546677038173449</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.91560085080228</v>
+        <v>-26.01435609113742</v>
       </c>
       <c r="F34" t="n">
-        <v>3.688308473520609</v>
+        <v>3.751622850063196</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.471927503184624</v>
+        <v>-4.528630266792139</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.726083952829462</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.5089015553269</v>
+        <v>-25.60197473622873</v>
       </c>
       <c r="F35" t="n">
-        <v>3.448954992968173</v>
+        <v>3.513892815063134</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.478591485331062</v>
+        <v>-4.525160806539081</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.862544413177659</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.81985365676686</v>
+        <v>-24.91354217590225</v>
       </c>
       <c r="F36" t="n">
-        <v>3.23238211936034</v>
+        <v>3.286715176153503</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.74837147768767</v>
+        <v>-4.789821708484574</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.95697126366151</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.34146091093019</v>
+        <v>-24.42983395511184</v>
       </c>
       <c r="F37" t="n">
-        <v>3.101773306211281</v>
+        <v>3.15880337738984</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.742938172008353</v>
+        <v>-4.775249975421733</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.014005218682045</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.92670984920715</v>
+        <v>-24.01057914121125</v>
       </c>
       <c r="F38" t="n">
-        <v>3.029006287016968</v>
+        <v>3.084334358826102</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.886626195696297</v>
+        <v>-4.923022797596295</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.040115056175469</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.42727777270383</v>
+        <v>-23.50862025025947</v>
       </c>
       <c r="F39" t="n">
-        <v>3.000674543667472</v>
+        <v>3.05731184576078</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.75830853554454</v>
+        <v>-4.787910232269682</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.042333471645554</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.04440646840039</v>
+        <v>-23.12314357769053</v>
       </c>
       <c r="F40" t="n">
-        <v>3.089361803117325</v>
+        <v>3.157625070134085</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.745098401977238</v>
+        <v>-4.767289855293964</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.027325373651239</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.51415511100764</v>
+        <v>-22.59124259013972</v>
       </c>
       <c r="F41" t="n">
-        <v>3.106984042742288</v>
+        <v>3.167915620167681</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.673143105559111</v>
+        <v>-4.694994159001952</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.002017917507539</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.83861846898026</v>
+        <v>-21.90932999662842</v>
       </c>
       <c r="F42" t="n">
-        <v>3.202453115064154</v>
+        <v>3.260059247567749</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.700414372378427</v>
+        <v>-4.724032886704901</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.972411176507066</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.1757028068923</v>
+        <v>-21.2451705657705</v>
       </c>
       <c r="F43" t="n">
-        <v>3.320624240513574</v>
+        <v>3.379042095793356</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.743278571882238</v>
+        <v>-4.772291114979503</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.943802970634224</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.88688660620382</v>
+        <v>-20.95245285883519</v>
       </c>
       <c r="F44" t="n">
-        <v>3.228009290211204</v>
+        <v>3.281687731862281</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.79509790652979</v>
+        <v>-4.82058862016263</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.923653641806374</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.40121453998715</v>
+        <v>-20.46153077917899</v>
       </c>
       <c r="F45" t="n">
-        <v>3.354245274211126</v>
+        <v>3.413343929238678</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.743501141030547</v>
+        <v>-4.765116533022237</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.918188970680756</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.07308215386497</v>
+        <v>-20.1360954074422</v>
       </c>
       <c r="F46" t="n">
-        <v>3.382550832954939</v>
+        <v>3.4402093346699</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.72053724184616</v>
+        <v>-4.72819623900857</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.931950636579851</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.53048475489248</v>
+        <v>-19.58675547250622</v>
       </c>
       <c r="F47" t="n">
-        <v>3.390641876111125</v>
+        <v>3.445603363440691</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.991259880007371</v>
+        <v>-4.994388940386544</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.967498957113239</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.05573166924581</v>
+        <v>-19.10992071070771</v>
       </c>
       <c r="F48" t="n">
-        <v>3.320676609724941</v>
+        <v>3.371684221596306</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106733991071395</v>
+        <v>-5.108658559589129</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.025413252652879</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.66781982834831</v>
+        <v>-18.73112111258805</v>
       </c>
       <c r="F49" t="n">
-        <v>3.339843741085228</v>
+        <v>3.389777784123571</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.394646822863793</v>
+        <v>-5.400472897628362</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.102510138128527</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.15359344963383</v>
+        <v>-18.21392278112851</v>
       </c>
       <c r="F50" t="n">
-        <v>3.480088489125797</v>
+        <v>3.539789390084068</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.312571176349013</v>
+        <v>-5.299256304358977</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.196696214874831</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.48849137297131</v>
+        <v>-17.55158318036558</v>
       </c>
       <c r="F51" t="n">
-        <v>3.496768082946156</v>
+        <v>3.560789443842197</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.525478205161162</v>
+        <v>-5.511718194874508</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.30583469466537</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.09645545667866</v>
+        <v>-17.15775361858362</v>
       </c>
       <c r="F52" t="n">
-        <v>3.32620156152415</v>
+        <v>3.384514678381197</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.815485805408236</v>
+        <v>-5.81786860452543</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.424818197502153</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.70608226284692</v>
+        <v>-16.7710593618504</v>
       </c>
       <c r="F53" t="n">
-        <v>3.361158010111558</v>
+        <v>3.415752912961556</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.84592540951525</v>
+        <v>-5.845179148253271</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.548087682387909</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.50848013605674</v>
+        <v>-16.58207197033008</v>
       </c>
       <c r="F54" t="n">
-        <v>3.096353092834807</v>
+        <v>3.148512827356243</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.023365389929163</v>
+        <v>-6.016308638697472</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.670177398385212</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.21780482836474</v>
+        <v>-16.29656812226057</v>
       </c>
       <c r="F55" t="n">
-        <v>2.948881393625604</v>
+        <v>3.002586019882365</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.166582090714804</v>
+        <v>-6.15168305008092</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.78447295300439</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.8878657044504</v>
+        <v>-15.97511281058767</v>
       </c>
       <c r="F56" t="n">
-        <v>2.895176767368844</v>
+        <v>2.949012316654021</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475822283836374</v>
+        <v>-6.473374023204971</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.888486741895793</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.34126206080834</v>
+        <v>-15.42780218259215</v>
       </c>
       <c r="F57" t="n">
-        <v>2.931075861760857</v>
+        <v>2.993761807767041</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.733400249944492</v>
+        <v>-6.72989151278291</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.983301808335887</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.1388681511781</v>
+        <v>-15.23068447100712</v>
       </c>
       <c r="F58" t="n">
-        <v>2.772711366587338</v>
+        <v>2.837596819470932</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709100935870249</v>
+        <v>-6.707700059466184</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.069192984477023</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.79416090965829</v>
+        <v>-14.88940741283185</v>
       </c>
       <c r="F59" t="n">
-        <v>2.898135627811074</v>
+        <v>2.971321600696323</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.819311941191899</v>
+        <v>-6.814939112042762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.146084566368543</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.73819131500991</v>
+        <v>-14.8397221235475</v>
       </c>
       <c r="F60" t="n">
-        <v>2.717042894904319</v>
+        <v>2.790202683183884</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.82364549343251</v>
+        <v>-6.823894247186503</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.21308319813981</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.39409941172367</v>
+        <v>-14.49390203628614</v>
       </c>
       <c r="F61" t="n">
-        <v>2.603008937152885</v>
+        <v>2.67700663281432</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.230528081147673</v>
+        <v>-7.239313016354471</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.26702838380236</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.1869922730704</v>
+        <v>-14.29724255530058</v>
       </c>
       <c r="F62" t="n">
-        <v>2.556609815881808</v>
+        <v>2.63422098712756</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176928193313646</v>
+        <v>-7.175147640127172</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.30485417938431</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.86801140663459</v>
+        <v>-13.97917815006368</v>
       </c>
       <c r="F63" t="n">
-        <v>2.484209381167062</v>
+        <v>2.561375414116196</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.377633195877307</v>
+        <v>-7.384768500926048</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.326034702426835</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.68035943000413</v>
+        <v>-13.79775810958589</v>
       </c>
       <c r="F64" t="n">
-        <v>2.39560067553426</v>
+        <v>2.475804122742674</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.395137604776695</v>
+        <v>-7.383760393607234</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.330682996074453</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.49061268491899</v>
+        <v>-13.61048580973784</v>
       </c>
       <c r="F65" t="n">
-        <v>2.153890580470314</v>
+        <v>2.215738619094628</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741756322511392</v>
+        <v>-7.74302627588704</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.318234860049443</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.27499554941861</v>
+        <v>-13.39714673493191</v>
       </c>
       <c r="F66" t="n">
-        <v>2.087381682034345</v>
+        <v>2.149491566715494</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.786099952236318</v>
+        <v>-7.778833724159161</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.288842428082235</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.1052145661671</v>
+        <v>-13.22857024354185</v>
       </c>
       <c r="F67" t="n">
-        <v>2.361586872751456</v>
+        <v>2.448598317437567</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.863724215784912</v>
+        <v>-7.86901350613297</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.243052675524431</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.05522815391739</v>
+        <v>-13.18308758346969</v>
       </c>
       <c r="F68" t="n">
-        <v>2.071697103229957</v>
+        <v>2.141845661855926</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.764222714187794</v>
+        <v>-7.757008855322003</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.18077155342037</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.91490485205977</v>
+        <v>-13.04369383511383</v>
       </c>
       <c r="F69" t="n">
-        <v>2.129905481664272</v>
+        <v>2.218933140988009</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.836544595085489</v>
+        <v>-7.829304551614015</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.104484511383276</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.89190167596686</v>
+        <v>-13.02929230198793</v>
       </c>
       <c r="F70" t="n">
-        <v>2.128700989802833</v>
+        <v>2.212360804961462</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.745631644152543</v>
+        <v>-7.734765032793911</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.018039407798214</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.58613094309835</v>
+        <v>-12.7192796629987</v>
       </c>
       <c r="F71" t="n">
-        <v>2.084082421718231</v>
+        <v>2.169627528486068</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.454890874946333</v>
+        <v>-7.427776715761118</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.922558314297421</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.51827353746968</v>
+        <v>-12.65011302708586</v>
       </c>
       <c r="F72" t="n">
-        <v>2.093011372256288</v>
+        <v>2.173790880789737</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.519553758681617</v>
+        <v>-7.499299966185467</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.818767141001257</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.20365240788016</v>
+        <v>-12.30358595547106</v>
       </c>
       <c r="F73" t="n">
-        <v>2.069104827267296</v>
+        <v>2.150198551068947</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.254015672445729</v>
+        <v>-7.217213209157638</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.707423215252335</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.40548334848821</v>
+        <v>-12.50611078812972</v>
       </c>
       <c r="F74" t="n">
-        <v>2.093037556861971</v>
+        <v>2.171565189306644</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.203034245180048</v>
+        <v>-7.173236163912279</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.587949806361256</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.538265483909</v>
+        <v>-12.63935115414996</v>
       </c>
       <c r="F75" t="n">
-        <v>2.025036135902046</v>
+        <v>2.103563768346719</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.130790918099404</v>
+        <v>-7.107421157526923</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.462110682775738</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.79717886490697</v>
+        <v>-12.88955815375819</v>
       </c>
       <c r="F76" t="n">
-        <v>2.005554789273557</v>
+        <v>2.079054977427008</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.784591154055641</v>
+        <v>-6.744541799662802</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.335740117139665</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.37289979006903</v>
+        <v>-13.46119428043363</v>
       </c>
       <c r="F77" t="n">
-        <v>1.998380207316292</v>
+        <v>2.074001348530101</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.72723377530604</v>
+        <v>-6.699792308549782</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.213532333463114</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.8652227461293</v>
+        <v>-13.94938006879592</v>
       </c>
       <c r="F78" t="n">
-        <v>2.048837942468304</v>
+        <v>2.126920436616358</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.742316108179708</v>
+        <v>-6.73171134287791</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.100502832215187</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.35378821127399</v>
+        <v>-14.43718618037579</v>
       </c>
       <c r="F79" t="n">
-        <v>2.093875464243841</v>
+        <v>2.170360697445205</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.645459251756618</v>
+        <v>-6.643534683238885</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.00230830866789</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.9022247773139</v>
+        <v>-14.98453608527983</v>
       </c>
       <c r="F80" t="n">
-        <v>1.983612089710824</v>
+        <v>2.049335449976289</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.294101120393216</v>
+        <v>-6.282802463040806</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.923400943843668</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.67434333740469</v>
+        <v>-15.75530613817793</v>
       </c>
       <c r="F81" t="n">
-        <v>2.082170945503338</v>
+        <v>2.151874365832688</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.235683265113434</v>
+        <v>-6.23072128233642</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.869071837711715</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.40351914417463</v>
+        <v>-16.48170637674541</v>
       </c>
       <c r="F82" t="n">
-        <v>2.053865386759527</v>
+        <v>2.116734625005495</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.135095102380453</v>
+        <v>-6.128404935628331</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.848098364446916</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.28007500403387</v>
+        <v>-17.35912632859221</v>
       </c>
       <c r="F83" t="n">
-        <v>2.034802993821974</v>
+        <v>2.100421615664704</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.839968411722264</v>
+        <v>-5.829389831026149</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.86882277483763</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.33390064437008</v>
+        <v>-18.41107976962206</v>
       </c>
       <c r="F84" t="n">
-        <v>2.047345419944347</v>
+        <v>2.105030106264992</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.728421991510758</v>
+        <v>-5.72631413075324</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.938229289570463</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.13315954825178</v>
+        <v>-19.20893779709969</v>
       </c>
       <c r="F85" t="n">
-        <v>2.073660948656217</v>
+        <v>2.135194772012329</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.590756427130009</v>
+        <v>-5.59638611735195</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.062532466069666</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.28139378437968</v>
+        <v>-20.36388838458539</v>
       </c>
       <c r="F86" t="n">
-        <v>2.061406553196361</v>
+        <v>2.122050099959236</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252647706242432</v>
+        <v>-5.253734367378295</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.245446155581607</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.34732980484449</v>
+        <v>-21.43055757400934</v>
       </c>
       <c r="F87" t="n">
-        <v>1.884948495495577</v>
+        <v>1.923518419667302</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.89188930143867</v>
+        <v>-4.883156735443239</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.487119597085019</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.68934321533278</v>
+        <v>-22.7703322007117</v>
       </c>
       <c r="F88" t="n">
-        <v>1.979082152927587</v>
+        <v>2.022312936910967</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661870632812385</v>
+        <v>-4.662093201960695</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.790847515975661</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.07012293453542</v>
+        <v>-24.14158072344556</v>
       </c>
       <c r="F89" t="n">
-        <v>1.845514479336298</v>
+        <v>1.896836306475864</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.277179498413949</v>
+        <v>-4.27241390017956</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.157299416463472</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.53919714410266</v>
+        <v>-25.60848161074107</v>
       </c>
       <c r="F90" t="n">
-        <v>1.631167297211559</v>
+        <v>1.675209803971125</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.163656140473342</v>
+        <v>-4.167714754354277</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.582672866706325</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.18254299679612</v>
+        <v>-27.25064915617877</v>
       </c>
       <c r="F91" t="n">
-        <v>1.426194203921495</v>
+        <v>1.465837696926242</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.062230070358489</v>
+        <v>-4.059375948338993</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.059977537697371</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.77603336026828</v>
+        <v>-28.83225170867065</v>
       </c>
       <c r="F92" t="n">
-        <v>1.303336034054738</v>
+        <v>1.338737620938765</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.792345339579148</v>
+        <v>-3.786846572385623</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.579118148326285</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.62487599836547</v>
+        <v>-30.67617164089935</v>
       </c>
       <c r="F93" t="n">
-        <v>1.164492162418233</v>
+        <v>1.198152473024311</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.782958158441631</v>
+        <v>-3.771790424117639</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.121764041613461</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.70220550565646</v>
+        <v>-32.74643130465581</v>
       </c>
       <c r="F94" t="n">
-        <v>1.050706958420792</v>
+        <v>1.081879731486941</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.776844053014545</v>
+        <v>-3.760845258941956</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.6755192042291</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.73269075337976</v>
+        <v>-34.77012164720425</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6465344773938664</v>
+        <v>0.6784666040248363</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.762075935409078</v>
+        <v>-3.744034742093179</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.227526913697522</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.70295140803111</v>
+        <v>-36.73505373459902</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4231928832168613</v>
+        <v>0.4614354998175432</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.975441194820688</v>
+        <v>-3.961458615385724</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.760600880139895</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.7911998958921</v>
+        <v>-38.81822240895742</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04096310175266879</v>
+        <v>0.07313088983478974</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.971683703905112</v>
+        <v>-3.947737882007595</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.261975709005704</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01301605734438</v>
+        <v>-41.02643566775715</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1682780822637972</v>
+        <v>-0.1301663886915327</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.171812645143737</v>
+        <v>-4.147159838892767</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.713834710999045</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39169109914338</v>
+        <v>-43.40008326526493</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.08908274237419625</v>
+        <v>-0.05142927940139207</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.500809123253471</v>
+        <v>-4.477203701229839</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.10707114009386</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79623653135764</v>
+        <v>-45.79585685457523</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3586794424910195</v>
+        <v>-0.3348252667133946</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.683656224741018</v>
+        <v>-4.653242805239688</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.42243914166295</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19485115038459</v>
+        <v>-48.19398705839703</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2940951125727848</v>
+        <v>-0.260199140515556</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.96029658378669</v>
+        <v>-4.920954213747303</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.67365657076395</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41042228338136</v>
+        <v>-50.40113984066658</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4409121966399009</v>
+        <v>-0.4095299467282835</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.318907850924408</v>
+        <v>-5.283938310034157</v>
       </c>
     </row>
   </sheetData>
